--- a/Code/Results/Cases/Case_2_156/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_156/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9737490981748758</v>
+        <v>1.014929244053271</v>
       </c>
       <c r="D2">
-        <v>0.9977645044963244</v>
+        <v>1.020775119883531</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9491547591540079</v>
+        <v>1.013247807617859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035383493940942</v>
+        <v>1.025851439972041</v>
       </c>
       <c r="J2">
-        <v>0.9967443572247798</v>
+        <v>1.020157669769753</v>
       </c>
       <c r="K2">
-        <v>1.009255071431212</v>
+        <v>1.023614408938973</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9613710375005236</v>
+        <v>1.016109531397283</v>
       </c>
       <c r="N2">
-        <v>1.00283414971163</v>
+        <v>1.010807519146486</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9804567494664235</v>
+        <v>1.016205220458409</v>
       </c>
       <c r="D3">
-        <v>1.002607948179967</v>
+        <v>1.021692452815325</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9588004882135717</v>
+        <v>1.015173191787953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03733443752588</v>
+        <v>1.026105573556114</v>
       </c>
       <c r="J3">
-        <v>1.00149474261078</v>
+        <v>1.021066714046317</v>
       </c>
       <c r="K3">
-        <v>1.013207568225818</v>
+        <v>1.024337748708014</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9699891544137353</v>
+        <v>1.017836484460037</v>
       </c>
       <c r="N3">
-        <v>1.00442666357483</v>
+        <v>1.011110085313937</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9846551762078486</v>
+        <v>1.017028740503584</v>
       </c>
       <c r="D4">
-        <v>1.005640043828687</v>
+        <v>1.022283943223088</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9648250594474429</v>
+        <v>1.016416475128022</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038537278704618</v>
+        <v>1.026267290172515</v>
       </c>
       <c r="J4">
-        <v>1.004459719185971</v>
+        <v>1.021652396820202</v>
       </c>
       <c r="K4">
-        <v>1.015670871779736</v>
+        <v>1.024803096572644</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9753674097993623</v>
+        <v>1.018950994704106</v>
       </c>
       <c r="N4">
-        <v>1.005420408814702</v>
+        <v>1.011304942843843</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9863881946136438</v>
+        <v>1.017374447098387</v>
       </c>
       <c r="D5">
-        <v>1.006891626904008</v>
+        <v>1.022532110353021</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9673093886416441</v>
+        <v>1.016938552299475</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039029318965472</v>
+        <v>1.026334625025463</v>
       </c>
       <c r="J5">
-        <v>1.005681570177278</v>
+        <v>1.021898017334055</v>
       </c>
       <c r="K5">
-        <v>1.016685049865462</v>
+        <v>1.024998085784389</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9775840853231726</v>
+        <v>1.019418844274004</v>
       </c>
       <c r="N5">
-        <v>1.005829863097206</v>
+        <v>1.011386641646181</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9866773532217282</v>
+        <v>1.01743246356005</v>
       </c>
       <c r="D6">
-        <v>1.007100453422563</v>
+        <v>1.022573749762651</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9677237757250768</v>
+        <v>1.017026176678171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039111152172137</v>
+        <v>1.026345892722902</v>
       </c>
       <c r="J6">
-        <v>1.005885319400822</v>
+        <v>1.021939223030545</v>
       </c>
       <c r="K6">
-        <v>1.016854112015646</v>
+        <v>1.025030787729124</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9779537593072074</v>
+        <v>1.019497358193067</v>
       </c>
       <c r="N6">
-        <v>1.005898137556346</v>
+        <v>1.011400346422619</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9846784561629458</v>
+        <v>1.01703336181322</v>
       </c>
       <c r="D7">
-        <v>1.005656856727163</v>
+        <v>1.022287261186556</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9648584409787879</v>
+        <v>1.016423453483506</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038543906164127</v>
+        <v>1.026268192459562</v>
       </c>
       <c r="J7">
-        <v>1.004476140586836</v>
+        <v>1.021655681166991</v>
       </c>
       <c r="K7">
-        <v>1.015684505886628</v>
+        <v>1.02480570455026</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9753971994813186</v>
+        <v>1.018957248828864</v>
       </c>
       <c r="N7">
-        <v>1.005425912046331</v>
+        <v>1.011306035366916</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9760465992870495</v>
+        <v>1.015360909732708</v>
       </c>
       <c r="D8">
-        <v>0.9994232941412267</v>
+        <v>1.0210855709289</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9524617180967964</v>
+        <v>1.013899041726932</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03605554866195</v>
+        <v>1.025937890715056</v>
       </c>
       <c r="J8">
-        <v>0.9983732150879953</v>
+        <v>1.020465412398501</v>
       </c>
       <c r="K8">
-        <v>1.010611082944854</v>
+        <v>1.023859426557731</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9643265998966549</v>
+        <v>1.016693781419973</v>
       </c>
       <c r="N8">
-        <v>1.003380250143576</v>
+        <v>1.010909964925029</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9596501420876785</v>
+        <v>1.012397276805133</v>
       </c>
       <c r="D9">
-        <v>0.9875928265501214</v>
+        <v>1.018951895106328</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9287757337664267</v>
+        <v>1.009430315145557</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031183131940757</v>
+        <v>1.025334918724303</v>
       </c>
       <c r="J9">
-        <v>0.9867128841163569</v>
+        <v>1.018348402346849</v>
       </c>
       <c r="K9">
-        <v>1.000890460911821</v>
+        <v>1.02217110768792</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9431407284476176</v>
+        <v>1.012682074527158</v>
       </c>
       <c r="N9">
-        <v>0.9994702788875682</v>
+        <v>1.010204893458853</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9477615507220494</v>
+        <v>1.01040995502657</v>
       </c>
       <c r="D10">
-        <v>0.9790317266461434</v>
+        <v>1.017518343460313</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9114512018653775</v>
+        <v>1.00643644980466</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02755618321869</v>
+        <v>1.024918759703272</v>
       </c>
       <c r="J10">
-        <v>0.9782128232658434</v>
+        <v>1.016923555091584</v>
       </c>
       <c r="K10">
-        <v>0.9937901791366619</v>
+        <v>1.02103130101419</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9276271546861163</v>
+        <v>1.009991111079376</v>
       </c>
       <c r="N10">
-        <v>0.9966195969256342</v>
+        <v>1.009729934948374</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.942343038229896</v>
+        <v>1.009546581542897</v>
       </c>
       <c r="D11">
-        <v>0.9751362776865095</v>
+        <v>1.016894910330066</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9035033993770755</v>
+        <v>1.005136358141494</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025882058632117</v>
+        <v>1.024735172282214</v>
       </c>
       <c r="J11">
-        <v>0.9743279636177564</v>
+        <v>1.016303302858407</v>
       </c>
       <c r="K11">
-        <v>0.9905428301236563</v>
+        <v>1.02053431530909</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9205074664982595</v>
+        <v>1.008821780499811</v>
       </c>
       <c r="N11">
-        <v>0.9953167789186615</v>
+        <v>1.009523083597871</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9402852599418101</v>
+        <v>1.009225449441732</v>
       </c>
       <c r="D12">
-        <v>0.9736581209242755</v>
+        <v>1.016662929482969</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9004756283492221</v>
+        <v>1.004652866611126</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025243237060586</v>
+        <v>1.024666468649492</v>
       </c>
       <c r="J12">
-        <v>0.9728509981259775</v>
+        <v>1.016072413681836</v>
       </c>
       <c r="K12">
-        <v>0.9893080100195882</v>
+        <v>1.020349190758286</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.917794928914935</v>
+        <v>1.008386801712228</v>
       </c>
       <c r="N12">
-        <v>0.9948214901816284</v>
+        <v>1.009446068696294</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9407287805129892</v>
+        <v>1.00929435326985</v>
       </c>
       <c r="D13">
-        <v>0.9739766548442246</v>
+        <v>1.016712708797869</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9011286716156487</v>
+        <v>1.00475660372884</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025381059837782</v>
+        <v>1.024681228974122</v>
       </c>
       <c r="J13">
-        <v>0.973169407199958</v>
+        <v>1.016121962919925</v>
       </c>
       <c r="K13">
-        <v>0.9895742248982742</v>
+        <v>1.020388924299624</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.918379989255427</v>
+        <v>1.008480135263294</v>
       </c>
       <c r="N13">
-        <v>0.994928264852587</v>
+        <v>1.009462596883903</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9421738899406792</v>
+        <v>1.009520045622657</v>
       </c>
       <c r="D14">
-        <v>0.9750147480096005</v>
+        <v>1.016875743114511</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9032547203556262</v>
+        <v>1.005096404517915</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025829608733274</v>
+        <v>1.024729503656933</v>
       </c>
       <c r="J14">
-        <v>0.9742065906996343</v>
+        <v>1.016284227722378</v>
       </c>
       <c r="K14">
-        <v>0.990441359946356</v>
+        <v>1.020519023531404</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9202846823323887</v>
+        <v>1.008785838121243</v>
       </c>
       <c r="N14">
-        <v>0.9952760769063238</v>
+        <v>1.009516721228939</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9430581481534107</v>
+        <v>1.009659043998797</v>
       </c>
       <c r="D15">
-        <v>0.9756501205246781</v>
+        <v>1.016976139454397</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9045543479203864</v>
+        <v>1.005305689609723</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026103678863572</v>
+        <v>1.02475917949407</v>
       </c>
       <c r="J15">
-        <v>0.9748410273410031</v>
+        <v>1.016384137987579</v>
       </c>
       <c r="K15">
-        <v>0.9909717531133863</v>
+        <v>1.020599112655256</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9214489713529336</v>
+        <v>1.008974106759552</v>
       </c>
       <c r="N15">
-        <v>0.9954888341980637</v>
+        <v>1.00955004496228</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.948115094162407</v>
+        <v>1.010467193505786</v>
       </c>
       <c r="D16">
-        <v>0.9792860472279531</v>
+        <v>1.017559661440585</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9119685740029403</v>
+        <v>1.006522652399925</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027664990871896</v>
+        <v>1.024930872239245</v>
       </c>
       <c r="J16">
-        <v>0.9784660779800052</v>
+        <v>1.016964649447174</v>
       </c>
       <c r="K16">
-        <v>0.9940018371136344</v>
+        <v>1.021064211391677</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9280905772626452</v>
+        <v>1.010068627285868</v>
       </c>
       <c r="N16">
-        <v>0.9967045302124555</v>
+        <v>1.009743637712563</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9512118002070961</v>
+        <v>1.010973355292245</v>
       </c>
       <c r="D17">
-        <v>0.9815144089714479</v>
+        <v>1.017924964109755</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9164942840047918</v>
+        <v>1.007285009176453</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028615690112295</v>
+        <v>1.025037662070649</v>
       </c>
       <c r="J17">
-        <v>0.980683141859827</v>
+        <v>1.017327905174598</v>
       </c>
       <c r="K17">
-        <v>0.9958545113679403</v>
+        <v>1.021355030664646</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9321440794707575</v>
+        <v>1.010754074240755</v>
       </c>
       <c r="N17">
-        <v>0.9974480681669732</v>
+        <v>1.009864752916302</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9529922746679624</v>
+        <v>1.011268316495672</v>
       </c>
       <c r="D18">
-        <v>0.9827962119426765</v>
+        <v>1.01813777921336</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9190916586487708</v>
+        <v>1.007729320594471</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029160324000042</v>
+        <v>1.025099624042284</v>
       </c>
       <c r="J18">
-        <v>0.9819568543820709</v>
+        <v>1.01753946968356</v>
       </c>
       <c r="K18">
-        <v>0.9969186633157622</v>
+        <v>1.021524328864084</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9344701854149615</v>
+        <v>1.011153486980704</v>
       </c>
       <c r="N18">
-        <v>0.9978752379422073</v>
+        <v>1.009935282579985</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9535951208171348</v>
+        <v>1.011368844357191</v>
       </c>
       <c r="D19">
-        <v>0.9832303076681813</v>
+        <v>1.018210299753769</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9199703412917086</v>
+        <v>1.007880759102468</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029344391243883</v>
+        <v>1.025120696117237</v>
       </c>
       <c r="J19">
-        <v>0.9823879468380874</v>
+        <v>1.017611554240094</v>
       </c>
       <c r="K19">
-        <v>0.9972787893901705</v>
+        <v>1.021581999046995</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9352570502408549</v>
+        <v>1.011289609613677</v>
       </c>
       <c r="N19">
-        <v>0.9980198153292323</v>
+        <v>1.009959311967201</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9508822494839739</v>
+        <v>1.010919077369308</v>
       </c>
       <c r="D20">
-        <v>0.9812772043297593</v>
+        <v>1.017885797496505</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9160131603905686</v>
+        <v>1.007203252723311</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028514721807539</v>
+        <v>1.025026238343461</v>
       </c>
       <c r="J20">
-        <v>0.9804473069809987</v>
+        <v>1.017288964049144</v>
       </c>
       <c r="K20">
-        <v>0.9956574594298371</v>
+        <v>1.021323862860701</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9317131819561064</v>
+        <v>1.010680573449354</v>
       </c>
       <c r="N20">
-        <v>0.9973689755662188</v>
+        <v>1.009851770289901</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9417496255314598</v>
+        <v>1.009453596975634</v>
       </c>
       <c r="D21">
-        <v>0.9747099427803635</v>
+        <v>1.01682774493108</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9026308157512585</v>
+        <v>1.004996357812175</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025698003377497</v>
+        <v>1.024715302091788</v>
       </c>
       <c r="J21">
-        <v>0.9739021323070772</v>
+        <v>1.016236458634189</v>
       </c>
       <c r="K21">
-        <v>0.9901868234250421</v>
+        <v>1.020480726997275</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9197257413917671</v>
+        <v>1.008695833984539</v>
       </c>
       <c r="N21">
-        <v>0.9951739782029519</v>
+        <v>1.009500787974899</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9357438746604718</v>
+        <v>1.008529660085026</v>
       </c>
       <c r="D22">
-        <v>0.9703984464681679</v>
+        <v>1.016160130477646</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.8937739071130254</v>
+        <v>1.003605432194656</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023827919273243</v>
+        <v>1.024516846044956</v>
       </c>
       <c r="J22">
-        <v>0.9695884223855878</v>
+        <v>1.015571811268992</v>
       </c>
       <c r="K22">
-        <v>0.9865800430928159</v>
+        <v>1.019947591836609</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9117907086036672</v>
+        <v>1.007444253201973</v>
       </c>
       <c r="N22">
-        <v>0.9937274720956556</v>
+        <v>1.009279062594915</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9389543145310316</v>
+        <v>1.009019699325878</v>
       </c>
       <c r="D23">
-        <v>0.972702440776075</v>
+        <v>1.016514272328448</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>0.8985144002659532</v>
+        <v>1.004343113534538</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024829213287535</v>
+        <v>1.024622332456818</v>
       </c>
       <c r="J23">
-        <v>0.9718952570616681</v>
+        <v>1.015924430059674</v>
       </c>
       <c r="K23">
-        <v>0.9885089118438026</v>
+        <v>1.020230504970419</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>0.9160378466016431</v>
+        <v>1.008108096122234</v>
       </c>
       <c r="N23">
-        <v>0.9945009985022485</v>
+        <v>1.009396703555828</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9510312386175976</v>
+        <v>1.010943604073403</v>
       </c>
       <c r="D24">
-        <v>0.9813844421939126</v>
+        <v>1.017903496005337</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.91623068982954</v>
+        <v>1.007240196050603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028560375506735</v>
+        <v>1.02503140124341</v>
       </c>
       <c r="J24">
-        <v>0.9805539305189093</v>
+        <v>1.017306560844591</v>
       </c>
       <c r="K24">
-        <v>0.9957465494579236</v>
+        <v>1.021337947274362</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>0.9319080035955063</v>
+        <v>1.010713786517576</v>
       </c>
       <c r="N24">
-        <v>0.9974047341877125</v>
+        <v>1.009857636934416</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9640447510602759</v>
+        <v>1.013165453533465</v>
       </c>
       <c r="D25">
-        <v>0.9907615379047819</v>
+        <v>1.019505439748327</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>0.9351451073274478</v>
+        <v>1.010588107250644</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032505369059497</v>
+        <v>1.025493292879149</v>
       </c>
       <c r="J25">
-        <v>0.9898458440097184</v>
+        <v>1.018898056729389</v>
       </c>
       <c r="K25">
-        <v>1.003504982284042</v>
+        <v>1.022610074431632</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>0.9488412027703038</v>
+        <v>1.013722037066177</v>
       </c>
       <c r="N25">
-        <v>1.000520947386506</v>
+        <v>1.010388028962082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_156/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_156/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014929244053271</v>
+        <v>0.9737490981748746</v>
       </c>
       <c r="D2">
-        <v>1.020775119883531</v>
+        <v>0.9977645044963237</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.013247807617859</v>
+        <v>0.9491547591540064</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025851439972041</v>
+        <v>1.035383493940941</v>
       </c>
       <c r="J2">
-        <v>1.020157669769753</v>
+        <v>0.9967443572247789</v>
       </c>
       <c r="K2">
-        <v>1.023614408938973</v>
+        <v>1.009255071431211</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.016109531397283</v>
+        <v>0.9613710375005221</v>
       </c>
       <c r="N2">
-        <v>1.010807519146486</v>
+        <v>1.002834149711629</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016205220458409</v>
+        <v>0.9804567494664238</v>
       </c>
       <c r="D3">
-        <v>1.021692452815325</v>
+        <v>1.002607948179967</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.015173191787953</v>
+        <v>0.958800488213572</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026105573556114</v>
+        <v>1.03733443752588</v>
       </c>
       <c r="J3">
-        <v>1.021066714046317</v>
+        <v>1.00149474261078</v>
       </c>
       <c r="K3">
-        <v>1.024337748708014</v>
+        <v>1.013207568225818</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.017836484460037</v>
+        <v>0.9699891544137357</v>
       </c>
       <c r="N3">
-        <v>1.011110085313937</v>
+        <v>1.00442666357483</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017028740503584</v>
+        <v>0.984655176207848</v>
       </c>
       <c r="D4">
-        <v>1.022283943223088</v>
+        <v>1.005640043828687</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.016416475128022</v>
+        <v>0.9648250594474426</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026267290172515</v>
+        <v>1.038537278704617</v>
       </c>
       <c r="J4">
-        <v>1.021652396820202</v>
+        <v>1.004459719185971</v>
       </c>
       <c r="K4">
-        <v>1.024803096572644</v>
+        <v>1.015670871779735</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.018950994704106</v>
+        <v>0.9753674097993621</v>
       </c>
       <c r="N4">
-        <v>1.011304942843843</v>
+        <v>1.005420408814702</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017374447098387</v>
+        <v>0.986388194613643</v>
       </c>
       <c r="D5">
-        <v>1.022532110353021</v>
+        <v>1.006891626904008</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.016938552299475</v>
+        <v>0.967309388641643</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026334625025463</v>
+        <v>1.039029318965471</v>
       </c>
       <c r="J5">
-        <v>1.021898017334055</v>
+        <v>1.005681570177277</v>
       </c>
       <c r="K5">
-        <v>1.024998085784389</v>
+        <v>1.016685049865462</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.019418844274004</v>
+        <v>0.9775840853231716</v>
       </c>
       <c r="N5">
-        <v>1.011386641646181</v>
+        <v>1.005829863097206</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01743246356005</v>
+        <v>0.9866773532217281</v>
       </c>
       <c r="D6">
-        <v>1.022573749762651</v>
+        <v>1.007100453422563</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.017026176678171</v>
+        <v>0.967723775725076</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026345892722902</v>
+        <v>1.039111152172137</v>
       </c>
       <c r="J6">
-        <v>1.021939223030545</v>
+        <v>1.005885319400821</v>
       </c>
       <c r="K6">
-        <v>1.025030787729124</v>
+        <v>1.016854112015645</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.019497358193067</v>
+        <v>0.9779537593072066</v>
       </c>
       <c r="N6">
-        <v>1.011400346422619</v>
+        <v>1.005898137556346</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01703336181322</v>
+        <v>0.9846784561629455</v>
       </c>
       <c r="D7">
-        <v>1.022287261186556</v>
+        <v>1.005656856727162</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.016423453483506</v>
+        <v>0.9648584409787881</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026268192459562</v>
+        <v>1.038543906164127</v>
       </c>
       <c r="J7">
-        <v>1.021655681166991</v>
+        <v>1.004476140586836</v>
       </c>
       <c r="K7">
-        <v>1.02480570455026</v>
+        <v>1.015684505886628</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.018957248828864</v>
+        <v>0.9753971994813189</v>
       </c>
       <c r="N7">
-        <v>1.011306035366916</v>
+        <v>1.005425912046331</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015360909732708</v>
+        <v>0.9760465992870508</v>
       </c>
       <c r="D8">
-        <v>1.0210855709289</v>
+        <v>0.9994232941412283</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.013899041726932</v>
+        <v>0.9524617180967977</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025937890715056</v>
+        <v>1.036055548661951</v>
       </c>
       <c r="J8">
-        <v>1.020465412398501</v>
+        <v>0.9983732150879966</v>
       </c>
       <c r="K8">
-        <v>1.023859426557731</v>
+        <v>1.010611082944855</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.016693781419973</v>
+        <v>0.9643265998966563</v>
       </c>
       <c r="N8">
-        <v>1.010909964925029</v>
+        <v>1.003380250143576</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012397276805133</v>
+        <v>0.9596501420876804</v>
       </c>
       <c r="D9">
-        <v>1.018951895106328</v>
+        <v>0.9875928265501229</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.009430315145557</v>
+        <v>0.928775733766429</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025334918724303</v>
+        <v>1.031183131940759</v>
       </c>
       <c r="J9">
-        <v>1.018348402346849</v>
+        <v>0.9867128841163587</v>
       </c>
       <c r="K9">
-        <v>1.02217110768792</v>
+        <v>1.000890460911823</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.012682074527158</v>
+        <v>0.9431407284476198</v>
       </c>
       <c r="N9">
-        <v>1.010204893458853</v>
+        <v>0.9994702788875687</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01040995502657</v>
+        <v>0.9477615507220502</v>
       </c>
       <c r="D10">
-        <v>1.017518343460313</v>
+        <v>0.9790317266461442</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.00643644980466</v>
+        <v>0.9114512018653785</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024918759703272</v>
+        <v>1.02755618321869</v>
       </c>
       <c r="J10">
-        <v>1.016923555091584</v>
+        <v>0.9782128232658441</v>
       </c>
       <c r="K10">
-        <v>1.02103130101419</v>
+        <v>0.9937901791366626</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.009991111079376</v>
+        <v>0.9276271546861171</v>
       </c>
       <c r="N10">
-        <v>1.009729934948374</v>
+        <v>0.9966195969256344</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009546581542897</v>
+        <v>0.9423430382298966</v>
       </c>
       <c r="D11">
-        <v>1.016894910330066</v>
+        <v>0.9751362776865102</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.005136358141494</v>
+        <v>0.9035033993770761</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024735172282214</v>
+        <v>1.025882058632118</v>
       </c>
       <c r="J11">
-        <v>1.016303302858407</v>
+        <v>0.9743279636177572</v>
       </c>
       <c r="K11">
-        <v>1.02053431530909</v>
+        <v>0.9905428301236571</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.008821780499811</v>
+        <v>0.9205074664982603</v>
       </c>
       <c r="N11">
-        <v>1.009523083597871</v>
+        <v>0.9953167789186618</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009225449441732</v>
+        <v>0.9402852599418103</v>
       </c>
       <c r="D12">
-        <v>1.016662929482969</v>
+        <v>0.9736581209242756</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.004652866611126</v>
+        <v>0.9004756283492221</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024666468649492</v>
+        <v>1.025243237060586</v>
       </c>
       <c r="J12">
-        <v>1.016072413681836</v>
+        <v>0.9728509981259778</v>
       </c>
       <c r="K12">
-        <v>1.020349190758286</v>
+        <v>0.9893080100195885</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.008386801712228</v>
+        <v>0.917794928914935</v>
       </c>
       <c r="N12">
-        <v>1.009446068696294</v>
+        <v>0.9948214901816284</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00929435326985</v>
+        <v>0.940728780512989</v>
       </c>
       <c r="D13">
-        <v>1.016712708797869</v>
+        <v>0.9739766548442241</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.00475660372884</v>
+        <v>0.9011286716156481</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024681228974122</v>
+        <v>1.025381059837781</v>
       </c>
       <c r="J13">
-        <v>1.016121962919925</v>
+        <v>0.9731694071999577</v>
       </c>
       <c r="K13">
-        <v>1.020388924299624</v>
+        <v>0.9895742248982737</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.008480135263294</v>
+        <v>0.9183799892554265</v>
       </c>
       <c r="N13">
-        <v>1.009462596883903</v>
+        <v>0.9949282648525869</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009520045622657</v>
+        <v>0.9421738899406777</v>
       </c>
       <c r="D14">
-        <v>1.016875743114511</v>
+        <v>0.9750147480095994</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.005096404517915</v>
+        <v>0.9032547203556242</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024729503656933</v>
+        <v>1.025829608733273</v>
       </c>
       <c r="J14">
-        <v>1.016284227722378</v>
+        <v>0.9742065906996332</v>
       </c>
       <c r="K14">
-        <v>1.020519023531404</v>
+        <v>0.9904413599463551</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.008785838121243</v>
+        <v>0.9202846823323867</v>
       </c>
       <c r="N14">
-        <v>1.009516721228939</v>
+        <v>0.9952760769063234</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009659043998797</v>
+        <v>0.9430581481534098</v>
       </c>
       <c r="D15">
-        <v>1.016976139454397</v>
+        <v>0.9756501205246773</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.005305689609723</v>
+        <v>0.9045543479203849</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02475917949407</v>
+        <v>1.026103678863572</v>
       </c>
       <c r="J15">
-        <v>1.016384137987579</v>
+        <v>0.9748410273410022</v>
       </c>
       <c r="K15">
-        <v>1.020599112655256</v>
+        <v>0.9909717531133855</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.008974106759552</v>
+        <v>0.9214489713529322</v>
       </c>
       <c r="N15">
-        <v>1.00955004496228</v>
+        <v>0.9954888341980633</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010467193505786</v>
+        <v>0.9481150941624077</v>
       </c>
       <c r="D16">
-        <v>1.017559661440585</v>
+        <v>0.9792860472279536</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.006522652399925</v>
+        <v>0.9119685740029403</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024930872239245</v>
+        <v>1.027664990871897</v>
       </c>
       <c r="J16">
-        <v>1.016964649447174</v>
+        <v>0.9784660779800056</v>
       </c>
       <c r="K16">
-        <v>1.021064211391677</v>
+        <v>0.994001837113635</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.010068627285868</v>
+        <v>0.9280905772626453</v>
       </c>
       <c r="N16">
-        <v>1.009743637712563</v>
+        <v>0.9967045302124558</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010973355292245</v>
+        <v>0.9512118002070963</v>
       </c>
       <c r="D17">
-        <v>1.017924964109755</v>
+        <v>0.9815144089714485</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.007285009176453</v>
+        <v>0.9164942840047924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025037662070649</v>
+        <v>1.028615690112295</v>
       </c>
       <c r="J17">
-        <v>1.017327905174598</v>
+        <v>0.9806831418598272</v>
       </c>
       <c r="K17">
-        <v>1.021355030664646</v>
+        <v>0.9958545113679406</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.010754074240755</v>
+        <v>0.9321440794707583</v>
       </c>
       <c r="N17">
-        <v>1.009864752916302</v>
+        <v>0.9974480681669733</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011268316495672</v>
+        <v>0.9529922746679629</v>
       </c>
       <c r="D18">
-        <v>1.01813777921336</v>
+        <v>0.9827962119426771</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.007729320594471</v>
+        <v>0.9190916586487717</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025099624042284</v>
+        <v>1.029160324000042</v>
       </c>
       <c r="J18">
-        <v>1.01753946968356</v>
+        <v>0.9819568543820715</v>
       </c>
       <c r="K18">
-        <v>1.021524328864084</v>
+        <v>0.9969186633157627</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.011153486980704</v>
+        <v>0.9344701854149621</v>
       </c>
       <c r="N18">
-        <v>1.009935282579985</v>
+        <v>0.9978752379422074</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011368844357191</v>
+        <v>0.9535951208171348</v>
       </c>
       <c r="D19">
-        <v>1.018210299753769</v>
+        <v>0.9832303076681816</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.007880759102468</v>
+        <v>0.9199703412917083</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025120696117237</v>
+        <v>1.029344391243884</v>
       </c>
       <c r="J19">
-        <v>1.017611554240094</v>
+        <v>0.9823879468380875</v>
       </c>
       <c r="K19">
-        <v>1.021581999046995</v>
+        <v>0.9972787893901708</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.011289609613677</v>
+        <v>0.9352570502408547</v>
       </c>
       <c r="N19">
-        <v>1.009959311967201</v>
+        <v>0.9980198153292325</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010919077369308</v>
+        <v>0.9508822494839744</v>
       </c>
       <c r="D20">
-        <v>1.017885797496505</v>
+        <v>0.9812772043297595</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.007203252723311</v>
+        <v>0.916013160390569</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025026238343461</v>
+        <v>1.028514721807539</v>
       </c>
       <c r="J20">
-        <v>1.017288964049144</v>
+        <v>0.980447306980999</v>
       </c>
       <c r="K20">
-        <v>1.021323862860701</v>
+        <v>0.9956574594298373</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.010680573449354</v>
+        <v>0.9317131819561069</v>
       </c>
       <c r="N20">
-        <v>1.009851770289901</v>
+        <v>0.9973689755662187</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009453596975634</v>
+        <v>0.9417496255314591</v>
       </c>
       <c r="D21">
-        <v>1.01682774493108</v>
+        <v>0.9747099427803629</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.004996357812175</v>
+        <v>0.9026308157512583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024715302091788</v>
+        <v>1.025698003377496</v>
       </c>
       <c r="J21">
-        <v>1.016236458634189</v>
+        <v>0.9739021323070767</v>
       </c>
       <c r="K21">
-        <v>1.020480726997275</v>
+        <v>0.9901868234250416</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.008695833984539</v>
+        <v>0.919725741391767</v>
       </c>
       <c r="N21">
-        <v>1.009500787974899</v>
+        <v>0.9951739782029517</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008529660085026</v>
+        <v>0.9357438746604733</v>
       </c>
       <c r="D22">
-        <v>1.016160130477646</v>
+        <v>0.9703984464681693</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.003605432194656</v>
+        <v>0.8937739071130266</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024516846044956</v>
+        <v>1.023827919273244</v>
       </c>
       <c r="J22">
-        <v>1.015571811268992</v>
+        <v>0.9695884223855892</v>
       </c>
       <c r="K22">
-        <v>1.019947591836609</v>
+        <v>0.9865800430928171</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.007444253201973</v>
+        <v>0.9117907086036685</v>
       </c>
       <c r="N22">
-        <v>1.009279062594915</v>
+        <v>0.993727472095656</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009019699325878</v>
+        <v>0.938954314531031</v>
       </c>
       <c r="D23">
-        <v>1.016514272328448</v>
+        <v>0.9727024407760745</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.004343113534538</v>
+        <v>0.898514400265953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024622332456818</v>
+        <v>1.024829213287535</v>
       </c>
       <c r="J23">
-        <v>1.015924430059674</v>
+        <v>0.9718952570616677</v>
       </c>
       <c r="K23">
-        <v>1.020230504970419</v>
+        <v>0.9885089118438021</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.008108096122234</v>
+        <v>0.9160378466016427</v>
       </c>
       <c r="N23">
-        <v>1.009396703555828</v>
+        <v>0.9945009985022483</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010943604073403</v>
+        <v>0.9510312386175975</v>
       </c>
       <c r="D24">
-        <v>1.017903496005337</v>
+        <v>0.9813844421939125</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.007240196050603</v>
+        <v>0.9162306898295391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02503140124341</v>
+        <v>1.028560375506735</v>
       </c>
       <c r="J24">
-        <v>1.017306560844591</v>
+        <v>0.9805539305189092</v>
       </c>
       <c r="K24">
-        <v>1.021337947274362</v>
+        <v>0.9957465494579236</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.010713786517576</v>
+        <v>0.9319080035955054</v>
       </c>
       <c r="N24">
-        <v>1.009857636934416</v>
+        <v>0.9974047341877125</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013165453533465</v>
+        <v>0.9640447510602759</v>
       </c>
       <c r="D25">
-        <v>1.019505439748327</v>
+        <v>0.9907615379047817</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.010588107250644</v>
+        <v>0.9351451073274473</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025493292879149</v>
+        <v>1.032505369059497</v>
       </c>
       <c r="J25">
-        <v>1.018898056729389</v>
+        <v>0.9898458440097183</v>
       </c>
       <c r="K25">
-        <v>1.022610074431632</v>
+        <v>1.003504982284042</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.013722037066177</v>
+        <v>0.9488412027703034</v>
       </c>
       <c r="N25">
-        <v>1.010388028962082</v>
+        <v>1.000520947386506</v>
       </c>
     </row>
   </sheetData>
